--- a/spliced/falling/2023-03-25_17-55-03/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-03/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.05152416229248</v>
+        <v>-0.4886150360107422</v>
       </c>
       <c r="B2" t="n">
-        <v>1.264879941940308</v>
+        <v>1.498652458190918</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.0860356092453</v>
+        <v>-0.1321379840373993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.926494598388672</v>
+        <v>-0.7675657272338867</v>
       </c>
       <c r="B3" t="n">
-        <v>1.048632860183716</v>
+        <v>1.561143398284912</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.377110481262207</v>
+        <v>-0.3004561066627502</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.245864391326904</v>
+        <v>-0.6989822387695312</v>
       </c>
       <c r="B4" t="n">
-        <v>0.8565266132354736</v>
+        <v>1.441655874252319</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.664597749710083</v>
+        <v>-0.3177179098129272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-3.322721481323242</v>
+        <v>-1.05152416229248</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1786000728607177</v>
+        <v>1.264879941940308</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.3846595287323</v>
+        <v>-1.0860356092453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.3012375831604</v>
+        <v>-0.926494598388672</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1157760620117187</v>
+        <v>1.048632860183716</v>
       </c>
       <c r="C6" t="n">
-        <v>-3.529130935668945</v>
+        <v>-1.377110481262207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.027910232543945</v>
+        <v>-2.245864391326904</v>
       </c>
       <c r="B7" t="n">
-        <v>0.07773137092590331</v>
+        <v>0.8565266132354736</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.610418319702149</v>
+        <v>-1.664597749710083</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.616289138793945</v>
+        <v>-3.322721481323242</v>
       </c>
       <c r="B8" t="n">
-        <v>2.10645604133606</v>
+        <v>0.1786000728607177</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.895941138267517</v>
+        <v>-2.3846595287323</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-2.25627326965332</v>
+        <v>-3.3012375831604</v>
       </c>
       <c r="B9" t="n">
-        <v>3.301170110702514</v>
+        <v>0.1157760620117187</v>
       </c>
       <c r="C9" t="n">
-        <v>2.459498405456543</v>
+        <v>-3.529130935668945</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-7.072248935699463</v>
+        <v>-4.027910232543945</v>
       </c>
       <c r="B10" t="n">
-        <v>0.2452445030212402</v>
+        <v>0.07773137092590331</v>
       </c>
       <c r="C10" t="n">
-        <v>2.613380908966064</v>
+        <v>-3.610418319702149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.174159049987793</v>
+        <v>-3.616289138793945</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4089798927307129</v>
+        <v>2.10645604133606</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.180020928382874</v>
+        <v>-1.895941138267517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.068180084228516</v>
+        <v>-2.25627326965332</v>
       </c>
       <c r="B12" t="n">
-        <v>1.132891654968261</v>
+        <v>3.301170110702514</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7215011119842529</v>
+        <v>2.459498405456543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.8879909515380859</v>
+        <v>-7.072248935699463</v>
       </c>
       <c r="B13" t="n">
-        <v>1.976670265197754</v>
+        <v>0.2452445030212402</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6120514869689941</v>
+        <v>2.613380908966064</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.840078353881836</v>
+        <v>2.174159049987793</v>
       </c>
       <c r="B14" t="n">
-        <v>2.134320259094238</v>
+        <v>-0.4089798927307129</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.9632197618484496</v>
+        <v>-1.180020928382874</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.068455696105957</v>
+        <v>-1.068180084228516</v>
       </c>
       <c r="B15" t="n">
-        <v>1.208448648452759</v>
+        <v>1.132891654968261</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8138270378112793</v>
+        <v>0.7215011119842529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2797212600708008</v>
+        <v>-0.8879909515380859</v>
       </c>
       <c r="B16" t="n">
-        <v>1.691119432449341</v>
+        <v>1.976670265197754</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.5536166429519653</v>
+        <v>0.6120514869689941</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.3462333679199219</v>
+        <v>2.840078353881836</v>
       </c>
       <c r="B17" t="n">
-        <v>2.130516052246094</v>
+        <v>2.134320259094238</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.8037657737731934</v>
+        <v>-0.9632197618484496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.2171592712402343</v>
+        <v>-0.068455696105957</v>
       </c>
       <c r="B18" t="n">
-        <v>1.026369214057922</v>
+        <v>1.208448648452759</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0172093510627746</v>
+        <v>-0.8138270378112793</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1529102325439453</v>
+        <v>-0.2797212600708008</v>
       </c>
       <c r="B19" t="n">
-        <v>1.506775379180908</v>
+        <v>1.691119432449341</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2578078508377075</v>
+        <v>-0.5536166429519653</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3848018646240234</v>
+        <v>0.3462333679199219</v>
       </c>
       <c r="B20" t="n">
-        <v>1.347866296768188</v>
+        <v>2.130516052246094</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.0148896276950836</v>
+        <v>-0.8037657737731934</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.1136503219604492</v>
+        <v>0.2171592712402343</v>
       </c>
       <c r="B21" t="n">
-        <v>1.980222821235657</v>
+        <v>1.026369214057922</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.5787848234176636</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0294504165649414</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1.665037870407104</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0812948942184448</v>
+        <v>-0.0172093510627746</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_17-55-03/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_17-55-03/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.4886150360107422</v>
+        <v>-0.5562429428100586</v>
       </c>
       <c r="B2" t="n">
-        <v>1.498652458190918</v>
+        <v>1.515548229217529</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1321379840373993</v>
+        <v>0.1288182139396667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.7675657272338867</v>
+        <v>-0.7228193283081055</v>
       </c>
       <c r="B3" t="n">
-        <v>1.561143398284912</v>
+        <v>1.569920063018799</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3004561066627502</v>
+        <v>0.3090478777885437</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0.6989822387695312</v>
+        <v>-0.7100648880004883</v>
       </c>
       <c r="B4" t="n">
-        <v>1.441655874252319</v>
+        <v>1.677208662033081</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3177179098129272</v>
+        <v>0.4076560139656067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1.05152416229248</v>
+        <v>-0.8624534606933594</v>
       </c>
       <c r="B5" t="n">
-        <v>1.264879941940308</v>
+        <v>1.662384271621704</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.0860356092453</v>
+        <v>0.1703254878520965</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.926494598388672</v>
+        <v>-0.2973442077636719</v>
       </c>
       <c r="B6" t="n">
-        <v>1.048632860183716</v>
+        <v>1.564767122268677</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.377110481262207</v>
+        <v>0.0300358235836029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.245864391326904</v>
+        <v>-0.7404184341430664</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8565266132354736</v>
+        <v>1.651389360427856</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.664597749710083</v>
+        <v>0.2246546447277069</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.322721481323242</v>
+        <v>-0.7922754287719727</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1786000728607177</v>
+        <v>1.612479209899902</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.3846595287323</v>
+        <v>0.1184005141258239</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.3012375831604</v>
+        <v>-0.5356760025024414</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1157760620117187</v>
+        <v>1.573039531707764</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.529130935668945</v>
+        <v>0.1370119750499725</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.027910232543945</v>
+        <v>-0.6788949966430664</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07773137092590331</v>
+        <v>1.517318725585938</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.610418319702149</v>
+        <v>0.1871603727340698</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-3.616289138793945</v>
+        <v>-0.4886150360107422</v>
       </c>
       <c r="B11" t="n">
-        <v>2.10645604133606</v>
+        <v>1.498652458190918</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.895941138267517</v>
+        <v>-0.1321379840373993</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-2.25627326965332</v>
+        <v>-0.7675657272338867</v>
       </c>
       <c r="B12" t="n">
-        <v>3.301170110702514</v>
+        <v>1.561143398284912</v>
       </c>
       <c r="C12" t="n">
-        <v>2.459498405456543</v>
+        <v>-0.3004561066627502</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-7.072248935699463</v>
+        <v>-0.6989822387695312</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2452445030212402</v>
+        <v>1.441655874252319</v>
       </c>
       <c r="C13" t="n">
-        <v>2.613380908966064</v>
+        <v>-0.3177179098129272</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2.174159049987793</v>
+        <v>-1.05152416229248</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.4089798927307129</v>
+        <v>1.264879941940308</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.180020928382874</v>
+        <v>-1.0860356092453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.068180084228516</v>
+        <v>-0.926494598388672</v>
       </c>
       <c r="B15" t="n">
-        <v>1.132891654968261</v>
+        <v>1.048632860183716</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7215011119842529</v>
+        <v>-1.377110481262207</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.8879909515380859</v>
+        <v>-2.245864391326904</v>
       </c>
       <c r="B16" t="n">
-        <v>1.976670265197754</v>
+        <v>0.8565266132354736</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6120514869689941</v>
+        <v>-1.664597749710083</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.840078353881836</v>
+        <v>-3.322721481323242</v>
       </c>
       <c r="B17" t="n">
-        <v>2.134320259094238</v>
+        <v>0.1786000728607177</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.9632197618484496</v>
+        <v>-2.3846595287323</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.068455696105957</v>
+        <v>-3.3012375831604</v>
       </c>
       <c r="B18" t="n">
-        <v>1.208448648452759</v>
+        <v>0.1157760620117187</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.8138270378112793</v>
+        <v>-3.529130935668945</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2797212600708008</v>
+        <v>-4.027910232543945</v>
       </c>
       <c r="B19" t="n">
-        <v>1.691119432449341</v>
+        <v>0.07773137092590331</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.5536166429519653</v>
+        <v>-3.610418319702149</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3462333679199219</v>
+        <v>-3.616289138793945</v>
       </c>
       <c r="B20" t="n">
-        <v>2.130516052246094</v>
+        <v>2.10645604133606</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.8037657737731934</v>
+        <v>-1.895941138267517</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-2.25627326965332</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3.301170110702514</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.459498405456543</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-7.072248935699463</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2452445030212402</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.613380908966064</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.174159049987793</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.4089798927307129</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.180020928382874</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-1.068180084228516</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.132891654968261</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7215011119842529</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.8879909515380859</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.976670265197754</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6120514869689941</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.840078353881836</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.134320259094238</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.9632197618484496</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.068455696105957</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.208448648452759</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.8138270378112793</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.2797212600708008</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.691119432449341</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.5536166429519653</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.3462333679199219</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.130516052246094</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.8037657737731934</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>0.2171592712402343</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>1.026369214057922</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>-0.0172093510627746</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.1529102325439453</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.506775379180908</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2578078508377075</v>
       </c>
     </row>
   </sheetData>
